--- a/t/test_out.xlsx
+++ b/t/test_out.xlsx
@@ -31,8 +31,63 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>class: mandatory attribute not present
-1 attribute notes</t>
+          <t>15 attribute notes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
         </r>
       </text>
     </comment>
@@ -45,6 +100,146 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">value does not precisely match ontology term label - venous blood
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">attribute not in rule set
 </t>
         </r>
@@ -59,7 +254,35 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1 attribute notes</t>
+          <t>18 attribute notes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
         </r>
       </text>
     </comment>
@@ -72,39 +295,208 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">value is not a number
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1 attribute notes</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">attribute not in rule set
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O5" authorId="0">
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">uri is not descendent of valid ancestor
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">value is not in list of valid values:http://purl.obolibrary.org/obo/UBERON_0000029,http://purl.obolibrary.org/obo/UBERON_0013756
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">attribute not in rule set
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +515,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -131,109 +523,151 @@
     <t>entity_type</t>
   </si>
   <si>
-    <t>crew_capacity</t>
+    <t>MOLECULE</t>
+  </si>
+  <si>
+    <t>DISEASE</t>
+  </si>
+  <si>
+    <t>BIOMATERIAL_PROVIDER</t>
+  </si>
+  <si>
+    <t>BIOMATERIAL_TYPE</t>
+  </si>
+  <si>
+    <t>TISSUE_TYPE</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>TISSUE_DEPOT</t>
+  </si>
+  <si>
+    <t>COLLECTION_METHOD</t>
+  </si>
+  <si>
+    <t>DONOR_ID</t>
+  </si>
+  <si>
+    <t>DONOR_AGE</t>
+  </si>
+  <si>
+    <t>DONOR_HEALTH_STATUS</t>
+  </si>
+  <si>
+    <t>DONOR_SEX</t>
+  </si>
+  <si>
+    <t>DONOR_ETHNICITY</t>
+  </si>
+  <si>
+    <t>SAMPLE_ONTOLOGY_URI</t>
+  </si>
+  <si>
+    <t>DISEASE_ONTOLOGY_URI</t>
+  </si>
+  <si>
+    <t>phenotype</t>
+  </si>
+  <si>
+    <t>ENA-CHECKLIST</t>
+  </si>
+  <si>
+    <t>subject_id</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>S00GPR11</t>
+  </si>
+  <si>
+    <t>SAMPLE</t>
+  </si>
+  <si>
+    <t>total RNA</t>
+  </si>
+  <si>
+    <t>Chronic lymphocytic leukemia</t>
+  </si>
+  <si>
+    <t>"Felipe Prosper in collaboration with Jose I. Martin-Subero, University of Navarra"</t>
+  </si>
+  <si>
+    <t>Primary Tissue</t>
+  </si>
+  <si>
+    <t>Venous Blood</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UBERON_0013756</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Venipuncture</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>http://ncimeta.nci.nih.gov/ncimbrowser/ConceptReport.jsp?dictionary=NCI%20MetaThesaurus&amp;amp;code=C0023434</t>
+  </si>
+  <si>
+    <t>UBERON_0013756;C0023434</t>
+  </si>
+  <si>
+    <t>ERC000026</t>
+  </si>
+  <si>
+    <t>S0171TH1</t>
+  </si>
+  <si>
+    <t>genomic DNA</t>
+  </si>
+  <si>
+    <t>Germinal Center B-Cell-Like Diffuse Large B-Cell Lymphoma</t>
+  </si>
+  <si>
+    <t>ICGC_Siebert/Bergmann</t>
+  </si>
+  <si>
+    <t>palatine tonsil</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UBERON_0002373</t>
+  </si>
+  <si>
+    <t>DLBCL_GCB_2</t>
+  </si>
+  <si>
+    <t>55-60</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>https://ncimeta.nci.nih.gov/ncimbrowser/ConceptReport.jsp?dictionary=NCI%20MetaThesaurus&amp;code=C1333295</t>
+  </si>
+  <si>
+    <t>C1333295;UBERON_0000029</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
   <si>
     <t>units</t>
-  </si>
-  <si>
-    <t>passenger_capacity</t>
-  </si>
-  <si>
-    <t>class_id</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>cargo_capacity</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>weapon</t>
-  </si>
-  <si>
-    <t>carrying_craft</t>
-  </si>
-  <si>
-    <t>404-E-132-4FE274A</t>
-  </si>
-  <si>
-    <t>spacecraft</t>
-  </si>
-  <si>
-    <t>cabins</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>03-K64-Firefly</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>NX-74205</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>warship</t>
-  </si>
-  <si>
-    <t>Defiant</t>
-  </si>
-  <si>
-    <t>photon torpedo</t>
-  </si>
-  <si>
-    <t>phaser</t>
-  </si>
-  <si>
-    <t>CNV-301</t>
-  </si>
-  <si>
-    <t>NSO-929 Corvette</t>
-  </si>
-  <si>
-    <t>particle beam cannon</t>
-  </si>
-  <si>
-    <t>Missile launcher</t>
-  </si>
-  <si>
-    <t>BS-75</t>
-  </si>
-  <si>
-    <t>Battlestar</t>
-  </si>
-  <si>
-    <t>kinetic energy weapon</t>
-  </si>
-  <si>
-    <t>missile launcher</t>
-  </si>
-  <si>
-    <t>raptor</t>
-  </si>
-  <si>
-    <t>viper</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>count</t>
   </si>
   <si>
     <t>uri</t>
@@ -266,18 +700,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -287,7 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,14 +750,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,24 +1051,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="15.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
     <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
     <col min="10" max="10" width="9.140625" style="2"/>
     <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
     <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
     <col min="15" max="15" width="9.140625" style="2"/>
+    <col min="16" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="9.140625" style="2"/>
+    <col min="19" max="19" width="9.140625" style="2"/>
+    <col min="20" max="20" width="9.140625" style="2"/>
+    <col min="21" max="21" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -658,179 +1095,195 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2">
-        <v>74797</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1532</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>47</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>3000</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>33</v>
+      <c r="J3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="P2" r:id="rId2"/>
+    <hyperlink ref="Q2" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="P3" r:id="rId5"/>
+    <hyperlink ref="Q3" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -841,45 +1294,48 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>3000</v>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="2">
-        <v>47</v>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="2">
-        <v>5</v>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="2">
-        <v>50</v>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -889,84 +1345,87 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
         <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="2">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2">
-        <v>74797</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
-        <v>21</v>
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1532</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -974,7 +1433,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -982,26 +1441,29 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="5" t="s">
-        <v>27</v>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" s="5" t="s">
-        <v>31</v>
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1009,15 +1471,18 @@
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1025,7 +1490,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1033,97 +1498,117 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="2" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C23">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B23" r:id="rId1"/>
+    <hyperlink ref="B24" r:id="rId2"/>
+    <hyperlink ref="B25" r:id="rId3"/>
+    <hyperlink ref="B26" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="15.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -1136,16 +1621,66 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>